--- a/biology/Zoologie/Echinocorys/Echinocorys.xlsx
+++ b/biology/Zoologie/Echinocorys/Echinocorys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocorys est un genre éteint d'oursins irréguliers de l'ordre des Holasteroida, qui a vécu de la fin du Crétacé jusqu'au Paléocène. C'est le genre type de la famille des Echinocorythidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Echinocorys (Leske, 1778) † est décrit par les caractères suivants[P 1] :
 ovoïde ;
@@ -546,7 +560,9 @@
           <t>Espèces du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre  Echinocorys  (Leske, 1778) † possède de nombreuses espèces :
 Echinocorys arnaudi[P 2] (Seunes, 1888), alias Ananchytes regularis[P 1] (Arnaud, 1886)
@@ -562,24 +578,59 @@
 Echinocorys lamberti[WoRMS 7],[WED 7] (Smiser, 1935) †
 Echinocorys legindensis[WoRMS 8],[WED 8] (Wind, 1959) †
 Echinocorys mamontoffi[WoRMS 9],[WED 9] (Charles in Lambert &amp; Charles, 1937) †
-Echinocorys obliquus[1],[WoRMS 10],[WED 10] (Ravn, 1927)
+Echinocorys obliquus,[WoRMS 10],[WED 10] (Ravn, 1927)
 Echinocorys ogormani[WoRMS 11],[WED 11] (Lambert in Lambert &amp; Charles, 1937) †
 Echinocorys ovatus[WoRMS 12],[WED 12] (Leske, 1778) †
 Echinocorys pentagonalis[WoRMS 13],[WED 13] (Kongiel, 1949) †
 Echinocorys perconica[P 6] (von Hagenow, 1840)
 Echinocorys pustulosus[Note 3],[WoRMS 14],[WED 14] (Leske, 1778) †
 Echinocorys renngarteni[WoRMS 15],[WED 15] (Moskvin &amp; Poslavskaya, 1959) †
-Echinocorys scutata[2],[3] ou scutatus[MNHN 1] (Leske, 1778) alias Echinocorys conoidea[4],[P 7] (Goldfuss, 1829)
+Echinocorys scutata, ou scutatus[MNHN 1] (Leske, 1778) alias Echinocorys conoidea,[P 7] (Goldfuss, 1829)
 Echinocorys semiglobosus[WoRMS 16],[WED 16] (Kongiel, 1949) †
-Echinocorys sulcatus[5],[MNHN 2],[6],[WoRMS 17],[WED 17] (Goldfuss, 1826)
+Echinocorys sulcatus,[MNHN 2][WoRMS 17],[WED 17] (Goldfuss, 1826)
 Echinocorys sumbaricus[WoRMS 18],[WED 18] (Djabarov, 1968) †
 Echinocorys tenuituberculatus[P 8],[P 9],[P 10],[WoRMS 19],[WED 19] (Leymerie, 1851)
 Echinocorys texanus[NHM 2] (Cragin, 1893, p. 145)
 Echinocorys yoloensis[WoRMS 20],[WED 20] (Anderson, 1958) †
 			Echinocorys meudonensis, Muséum de Toulouse.
 			Echinocorys sulcata
-Description historique
-Leske décrit le genre type, à partir de l'espèce commune Echinocorys scutatus, par la diagnose suivante, extraite de « Jacobi Theodori Klein naturalis dispositio Echinodermatum » (p. 111, 1778)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Echinocorys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocorys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces du genre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leske décrit le genre type, à partir de l'espèce commune Echinocorys scutatus, par la diagnose suivante, extraite de « Jacobi Theodori Klein naturalis dispositio Echinodermatum » (p. 111, 1778)
 Spec. I. Galea vertice ſcutato ſ. Echinocorys ſcutatus. Tab. XV. A.B.
 Huius teſta in ſpatum calcareum, dilute flaueſcente griseum transformata eſt. Figura eſt conuexa, eminens, ouata, vt ex icone patet.
 Decem areae hic, vt in reliquis fere omnibus, quinque maiores totidemque minores adſunt : eaedemque integrae i. c. non manifeſto aſſulatae, maiores tamen ſutura media ſerrata diuiſae reperiuntur. Arearum ſuperficies eminentiis duplicis generis tegitur : tubercula magnitudine ſemina papauerina aequant, eaque granulis minimis interſperſis cinguntur. In ſuperficie ſuperiore conuexa tubercula rariora, in baſi autem frequentiora occurrunt. Os transuerſum, fere rotundus, non procul ab acuta extremitate, e regione oris, patet. Baſis ſere plana, circa marginem parum conuexa, et in medio fere eiusdem ab ore ad anum eminentior plaga extenditur, cui vtrinque faſciae duae, minutiſſimis ſolum granulis obſitae, adiacent.
@@ -591,38 +642,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Echinocorys</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Echinocorys</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Répartition stratigraphique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Echinocorys a vécu de la fin du Crétacé au Paléocène. 
-Ses restes ont été trouvés en Asie, en Europe et en Amérique du Nord.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -644,17 +663,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Synonymes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Echinocorys (Leske, 1778) † possède plusieurs synonymes[7],[8],[NHM 3],[WoRMS 21].
-Oolaster[7],[NHM 4],[WoRMS 22],[WED 21] (Laube, 1869) †,
-Ananchytes[7],[8],[NHM 5],[WoRMS 23],[WED 22] (Lamarck, 1816) †,
-Ananchitis[7],[NHM 6],[WoRMS 24],[WED 23] (Lamarck, 1801) †
-non Ananchytis[7], (Mercati, 1717) †.
-Selon une autre classification, ce genre Echinocorys appartient à la famille voisine Holasteridae (en)[MNHN 3].
+          <t>Répartition stratigraphique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Echinocorys a vécu de la fin du Crétacé au Paléocène. 
+Ses restes ont été trouvés en Asie, en Europe et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -680,10 +697,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Echinocorys (Leske, 1778) † possède plusieurs synonymes[NHM 3],[WoRMS 21].
+Oolaster,[NHM 4],[WoRMS 22],[WED 21] (Laube, 1869) †,
+Ananchytes[NHM 5],[WoRMS 23],[WED 22] (Lamarck, 1816) †,
+Ananchitis,[NHM 6],[WoRMS 24],[WED 23] (Lamarck, 1801) †
+non Ananchytis, (Mercati, 1717) †.
+Selon une autre classification, ce genre Echinocorys appartient à la famille voisine Holasteridae (en)[MNHN 3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Echinocorys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocorys</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Bases de données taxinomiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
